--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Desktop\DVSProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E7670B-6CAB-4C7B-BCDE-2DD1A4C718F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAC3D6-EE1C-4DAB-9135-6DEA900425A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{4B9AF89C-DF94-424C-A841-B2EC1172775C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{4B9AF89C-DF94-424C-A841-B2EC1172775C}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark" sheetId="2" r:id="rId1"/>
@@ -204,12 +204,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6502,7 +6501,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662147" cy="6286500"/>
+    <xdr:ext cx="8667750" cy="6292453"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6535,7 +6534,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662147" cy="6286500"/>
+    <xdr:ext cx="8667750" cy="6292453"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6568,7 +6567,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662147" cy="6286500"/>
+    <xdr:ext cx="8667750" cy="6292453"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6601,7 +6600,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662147" cy="6286500"/>
+    <xdr:ext cx="8667750" cy="6292453"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7061,8 +7060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC81FF5D-F091-463B-90E4-4AF306CA3FFB}">
   <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AL69" sqref="AL69"/>
+    <sheetView topLeftCell="H22" workbookViewId="0">
+      <selection activeCell="AK63" sqref="AK63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7350,18 +7349,18 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>3.0000000000012655E-6</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.5493850940880132</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AM2">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.57930063713142688</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2">
         <v>0.24396000000000001</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-3.5</v>
       </c>
@@ -7491,18 +7490,18 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.9999999999985307E-6</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.93884640375868456</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.45520734409623298</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3">
         <v>0.45402999999999999</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-2.5</v>
       </c>
@@ -7632,18 +7631,18 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>2.0000000000020002E-6</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.51734056603069656</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.35509360473358648</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4">
         <v>1.0717099999999999</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-1.5</v>
       </c>
@@ -7773,18 +7772,18 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.23372907917475663</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.23433945519259608</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AN5">
         <v>4.6738900000000001</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AO5">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-0.5</v>
       </c>
@@ -7914,18 +7913,18 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>2.0000000000020002E-6</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>9.5709469742565112E-2</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>9.5716753393222817E-2</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AN6">
         <v>1.0783199999999999</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO6">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>1.5</v>
       </c>
@@ -8055,18 +8054,18 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>7.199999999998874E-5</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AL7">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.10838261700644995</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AM7">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.10842511745283422</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AN7">
         <v>1.45126</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AO7">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>2.5</v>
       </c>
@@ -8196,18 +8195,18 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>7.399999999999074E-5</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AL8">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.12708812408816281</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AM8">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.12708038387840312</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AN8">
         <v>1.9987299999999999</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AO8">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>3.5</v>
       </c>
@@ -8337,18 +8336,18 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AL9">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.14420674047645607</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AM9">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.14420974140478673</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="AN9">
         <v>2.6049799999999999</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="AO9">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>4.5</v>
       </c>
@@ -8478,16 +8477,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AL10">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.363994910941476</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AM10">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.55496183206106875</v>
       </c>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2">
+      <c r="AO10">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-3.5</v>
       </c>
@@ -8617,16 +8615,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000000243E-6</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AL11">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>2.7499999999999991</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AM11">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>2.9492187499999996</v>
       </c>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2">
+      <c r="AO11">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-0.5</v>
       </c>
@@ -8756,16 +8753,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.9999999999950613E-6</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AL12">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.2249667531848156</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="AM12">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.22502178239615525</v>
       </c>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2">
+      <c r="AO12">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>3.5</v>
       </c>
@@ -8895,16 +8891,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000001327E-6</v>
       </c>
-      <c r="AL13" s="2">
+      <c r="AL13">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.1333937745542457</v>
       </c>
-      <c r="AM13" s="2">
+      <c r="AM13">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.1349652462979751</v>
       </c>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2">
+      <c r="AO13">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>3.5</v>
       </c>
@@ -9034,16 +9029,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000001327E-6</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AL14">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.60533193936225815</v>
       </c>
-      <c r="AM14" s="2">
+      <c r="AM14">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.30739813464660076</v>
       </c>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2">
+      <c r="AO14">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-2.5</v>
       </c>
@@ -9173,16 +9167,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000010001E-6</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="AL15">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.96258544921875011</v>
       </c>
-      <c r="AM15" s="2">
+      <c r="AM15">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.49125162760416674</v>
       </c>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2">
+      <c r="AO15">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-2.5</v>
       </c>
@@ -9312,16 +9305,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>2.0000000000002655E-6</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="AL16">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.7650217706821478</v>
       </c>
-      <c r="AM16" s="2">
+      <c r="AM16">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.87489114658925971</v>
       </c>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2">
+      <c r="AO16">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-2.5</v>
       </c>
@@ -9451,16 +9443,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>9.999999999999701E-7</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AL17">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.4969924812030073</v>
       </c>
-      <c r="AM17" s="2">
+      <c r="AM17">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.0887218045112781</v>
       </c>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2">
+      <c r="AO17">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-1.5</v>
       </c>
@@ -9590,16 +9581,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL18" s="2">
+      <c r="AL18">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.18208321764309232</v>
       </c>
-      <c r="AM18" s="2">
+      <c r="AM18">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.18216113147888963</v>
       </c>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2">
+      <c r="AO18">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>4.5</v>
       </c>
@@ -9729,16 +9719,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AL19">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>9.6437768240343349</v>
       </c>
-      <c r="AM19" s="2">
+      <c r="AM19">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>5.6008583690987122</v>
       </c>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2">
+      <c r="AO19">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-2.5</v>
       </c>
@@ -9868,16 +9857,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AL20">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.33312950648424161</v>
       </c>
-      <c r="AM20" s="2">
+      <c r="AM20">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.33330785497719689</v>
       </c>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2">
+      <c r="AO20">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>4.5</v>
       </c>
@@ -10007,16 +9995,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AL21">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.54807838371563122</v>
       </c>
-      <c r="AM21" s="2">
+      <c r="AM21">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.55620537748746779</v>
       </c>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="2">
+      <c r="AO21">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-0.5</v>
       </c>
@@ -10146,16 +10133,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>2.9999999999995308E-6</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AL22">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.42162507254788162</v>
       </c>
-      <c r="AM22" s="2">
+      <c r="AM22">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.42210098665118972</v>
       </c>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2">
+      <c r="AO22">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>2.5</v>
       </c>
@@ -10285,16 +10271,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.9999999999998318E-6</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AL23">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.432711366277083</v>
       </c>
-      <c r="AM23" s="2">
+      <c r="AM23">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.56161574738568787</v>
       </c>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2">
+      <c r="AO23">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-3.5</v>
       </c>
@@ -10424,16 +10409,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000001327E-6</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AL24">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.0714125811506603</v>
       </c>
-      <c r="AM24" s="2">
+      <c r="AM24">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.0728303857921051</v>
       </c>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2">
+      <c r="AO24">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>1.5</v>
       </c>
@@ -10563,16 +10547,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>3.0800000000000011E-4</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL25">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.7241471215351813</v>
       </c>
-      <c r="AM25" s="2">
+      <c r="AM25">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.7845149253731345</v>
       </c>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2">
+      <c r="AO25">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-0.5</v>
       </c>
@@ -10702,16 +10685,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>2.0000000000002655E-6</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AL26">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.16194221669194647</v>
       </c>
-      <c r="AM26" s="2">
+      <c r="AM26">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.16217836350260215</v>
       </c>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2">
+      <c r="AO26">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>3.5</v>
       </c>
@@ -10841,16 +10823,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000001327E-6</v>
       </c>
-      <c r="AL27" s="2">
+      <c r="AL27">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.37965127501233187</v>
       </c>
-      <c r="AM27" s="2">
+      <c r="AM27">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.38265382718167584</v>
       </c>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2">
+      <c r="AO27">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-0.5</v>
       </c>
@@ -10980,16 +10961,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>2.0000000000020002E-6</v>
       </c>
-      <c r="AL28" s="2">
+      <c r="AL28">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.11737701753001539</v>
       </c>
-      <c r="AM28" s="2">
+      <c r="AM28">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.11785432182567744</v>
       </c>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2">
+      <c r="AO28">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-0.5</v>
       </c>
@@ -11119,16 +11099,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>9.9999999999926537E-7</v>
       </c>
-      <c r="AL29" s="2">
+      <c r="AL29">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.424127868417562</v>
       </c>
-      <c r="AM29" s="2">
+      <c r="AM29">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.4247579254543044</v>
       </c>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2">
+      <c r="AO29">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>3.5</v>
       </c>
@@ -11258,16 +11237,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AL30">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.12805376687661454</v>
       </c>
-      <c r="AM30" s="2">
+      <c r="AM30">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.12820540593233648</v>
       </c>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="2">
+      <c r="AO30">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>1.5</v>
       </c>
@@ -11397,16 +11375,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000010001E-6</v>
       </c>
-      <c r="AL31" s="2">
+      <c r="AL31">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>2.2648835931888285</v>
       </c>
-      <c r="AM31" s="2">
+      <c r="AM31">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>2.2866438500866186</v>
       </c>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2">
+      <c r="AO31">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-0.5</v>
       </c>
@@ -11536,16 +11513,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000001327E-6</v>
       </c>
-      <c r="AL32" s="2">
+      <c r="AL32">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.6597029641954768</v>
       </c>
-      <c r="AM32" s="2">
+      <c r="AM32">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.45533164889792732</v>
       </c>
-      <c r="AN32" s="2"/>
-      <c r="AO32" s="2">
+      <c r="AO32">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-1.5</v>
       </c>
@@ -11675,16 +11651,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000010001E-6</v>
       </c>
-      <c r="AL33" s="2">
+      <c r="AL33">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.98470072323853775</v>
       </c>
-      <c r="AM33" s="2">
+      <c r="AM33">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.98499525476977434</v>
       </c>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2">
+      <c r="AO33">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>2.5</v>
       </c>
@@ -11814,16 +11789,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>3.0000000000000729E-6</v>
       </c>
-      <c r="AL34" s="2">
+      <c r="AL34">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.2567125081859858</v>
       </c>
-      <c r="AM34" s="2">
+      <c r="AM34">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.2973149967256059</v>
       </c>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2">
+      <c r="AO34">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-0.5</v>
       </c>
@@ -11953,16 +11927,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000010001E-6</v>
       </c>
-      <c r="AL35" s="2">
+      <c r="AL35">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.15622130734828066</v>
       </c>
-      <c r="AM35" s="2">
+      <c r="AM35">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.15627165832420106</v>
       </c>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="2">
+      <c r="AO35">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>2.5</v>
       </c>
@@ -12092,16 +12065,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>9.9999999999991589E-7</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AL36">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.2041297935103248</v>
       </c>
-      <c r="AM36" s="2">
+      <c r="AM36">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.87197640117994102</v>
       </c>
-      <c r="AN36" s="2"/>
-      <c r="AO36" s="2">
+      <c r="AO36">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-1.5</v>
       </c>
@@ -12231,16 +12203,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>3.0000000000003982E-6</v>
       </c>
-      <c r="AL37" s="2">
+      <c r="AL37">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.7643032042336958</v>
       </c>
-      <c r="AM37" s="2">
+      <c r="AM37">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.50783286380032111</v>
       </c>
-      <c r="AN37" s="2"/>
-      <c r="AO37" s="2">
+      <c r="AO37">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-1.5</v>
       </c>
@@ -12370,16 +12341,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000000243E-6</v>
       </c>
-      <c r="AL38" s="2">
+      <c r="AL38">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.371992110453649</v>
       </c>
-      <c r="AM38" s="2">
+      <c r="AM38">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.61854043392504932</v>
       </c>
-      <c r="AN38" s="2"/>
-      <c r="AO38" s="2">
+      <c r="AO38">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-3.5</v>
       </c>
@@ -12509,16 +12479,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL39" s="2">
+      <c r="AL39">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>2.0592777651601182</v>
       </c>
-      <c r="AM39" s="2">
+      <c r="AM39">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.99511696570520092</v>
       </c>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2">
+      <c r="AO39">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-2.5</v>
       </c>
@@ -12648,16 +12617,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>2.0000000000002655E-6</v>
       </c>
-      <c r="AL40" s="2">
+      <c r="AL40">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.473767051416579</v>
       </c>
-      <c r="AM40" s="2">
+      <c r="AM40">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.9873207415180133</v>
       </c>
-      <c r="AN40" s="2"/>
-      <c r="AO40" s="2">
+      <c r="AO40">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-1.5</v>
       </c>
@@ -12787,16 +12755,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL41" s="2">
+      <c r="AL41">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.12507326189220605</v>
       </c>
-      <c r="AM41" s="2">
+      <c r="AM41">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.12509424381837486</v>
       </c>
-      <c r="AN41" s="2"/>
-      <c r="AO41" s="2">
+      <c r="AO41">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>4.5</v>
       </c>
@@ -12926,16 +12893,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL42" s="2">
+      <c r="AL42">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.1168057210965436</v>
       </c>
-      <c r="AM42" s="2">
+      <c r="AM42">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.54082240762812872</v>
       </c>
-      <c r="AN42" s="2"/>
-      <c r="AO42" s="2">
+      <c r="AO42">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-3.5</v>
       </c>
@@ -13065,16 +13031,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000000243E-6</v>
       </c>
-      <c r="AL43" s="2">
+      <c r="AL43">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.56375131717597482</v>
       </c>
-      <c r="AM43" s="2">
+      <c r="AM43">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.42079381805409211</v>
       </c>
-      <c r="AN43" s="2"/>
-      <c r="AO43" s="2">
+      <c r="AO43">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-1.5</v>
       </c>
@@ -13204,16 +13169,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL44" s="2">
+      <c r="AL44">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.19919177159556617</v>
       </c>
-      <c r="AM44" s="2">
+      <c r="AM44">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.19925569926597331</v>
       </c>
-      <c r="AN44" s="2"/>
-      <c r="AO44" s="2">
+      <c r="AO44">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>4.5</v>
       </c>
@@ -13343,16 +13307,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>4.0000000000005309E-6</v>
       </c>
-      <c r="AL45" s="2">
+      <c r="AL45">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>10.255302120848338</v>
       </c>
-      <c r="AM45" s="2">
+      <c r="AM45">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>6.6594637855142045</v>
       </c>
-      <c r="AN45" s="2"/>
-      <c r="AO45" s="2">
+      <c r="AO45">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-1.5</v>
       </c>
@@ -13482,16 +13445,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>9.9999999999969905E-7</v>
       </c>
-      <c r="AL46" s="2">
+      <c r="AL46">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>3.5179696183771765</v>
       </c>
-      <c r="AM46" s="2">
+      <c r="AM46">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>3.528714338643943</v>
       </c>
-      <c r="AN46" s="2"/>
-      <c r="AO46" s="2">
+      <c r="AO46">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>2.5</v>
       </c>
@@ -13621,16 +13583,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000001327E-6</v>
       </c>
-      <c r="AL47" s="2">
+      <c r="AL47">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.51263403263403262</v>
       </c>
-      <c r="AM47" s="2">
+      <c r="AM47">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.51312354312354314</v>
       </c>
-      <c r="AN47" s="2"/>
-      <c r="AO47" s="2">
+      <c r="AO47">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>2.5</v>
       </c>
@@ -13760,16 +13721,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>2.9999999999995308E-6</v>
       </c>
-      <c r="AL48" s="2">
+      <c r="AL48">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.24591491183683006</v>
       </c>
-      <c r="AM48" s="2">
+      <c r="AM48">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.12233077731501305</v>
       </c>
-      <c r="AN48" s="2"/>
-      <c r="AO48" s="2">
+      <c r="AO48">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-2.5</v>
       </c>
@@ -13899,16 +13859,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>2.0000000000000486E-6</v>
       </c>
-      <c r="AL49" s="2">
+      <c r="AL49">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.87726098191214485</v>
       </c>
-      <c r="AM49" s="2">
+      <c r="AM49">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.60680447889750211</v>
       </c>
-      <c r="AN49" s="2"/>
-      <c r="AO49" s="2">
+      <c r="AO49">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-1.5</v>
       </c>
@@ -14038,16 +13997,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>0</v>
       </c>
-      <c r="AL50" s="2">
+      <c r="AL50">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.47578186643712789</v>
       </c>
-      <c r="AM50" s="2">
+      <c r="AM50">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.47404239294168277</v>
       </c>
-      <c r="AN50" s="2"/>
-      <c r="AO50" s="2">
+      <c r="AO50">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>4.5</v>
       </c>
@@ -14177,16 +14135,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000001327E-6</v>
       </c>
-      <c r="AL51" s="2">
+      <c r="AL51">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>4.2538533395609521</v>
       </c>
-      <c r="AM51" s="2">
+      <c r="AM51">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.6297290985520785</v>
       </c>
-      <c r="AN51" s="2"/>
-      <c r="AO51" s="2">
+      <c r="AO51">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-3.5</v>
       </c>
@@ -14316,16 +14273,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000001327E-6</v>
       </c>
-      <c r="AL52" s="2">
+      <c r="AL52">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>2.9203354297693922</v>
       </c>
-      <c r="AM52" s="2">
+      <c r="AM52">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.1357442348008389</v>
       </c>
-      <c r="AN52" s="2"/>
-      <c r="AO52" s="2">
+      <c r="AO52">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-3.5</v>
       </c>
@@ -14455,16 +14411,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>4.0000000000000972E-6</v>
       </c>
-      <c r="AL53" s="2">
+      <c r="AL53">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.12451450025893319</v>
       </c>
-      <c r="AM53" s="2">
+      <c r="AM53">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.12546392197479719</v>
       </c>
-      <c r="AN53" s="2"/>
-      <c r="AO53" s="2">
+      <c r="AO53">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-0.5</v>
       </c>
@@ -14594,16 +14549,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>5.3000000000000963E-5</v>
       </c>
-      <c r="AL54" s="2">
+      <c r="AL54">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.25801816374908043</v>
       </c>
-      <c r="AM54" s="2">
+      <c r="AM54">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.13055786199508693</v>
       </c>
-      <c r="AN54" s="2"/>
-      <c r="AO54" s="2">
+      <c r="AO54">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-2.5</v>
       </c>
@@ -14733,16 +14687,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000000243E-6</v>
       </c>
-      <c r="AL55" s="2">
+      <c r="AL55">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>2.7662337662337664</v>
       </c>
-      <c r="AM55" s="2">
+      <c r="AM55">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>2.893939393939394</v>
       </c>
-      <c r="AN55" s="2"/>
-      <c r="AO55" s="2">
+      <c r="AO55">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-0.5</v>
       </c>
@@ -14872,16 +14825,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>9.9999999999969905E-7</v>
       </c>
-      <c r="AL56" s="2">
+      <c r="AL56">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.3600580446218027</v>
       </c>
-      <c r="AM56" s="2">
+      <c r="AM56">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.3644113912570288</v>
       </c>
-      <c r="AN56" s="2"/>
-      <c r="AO56" s="2">
+      <c r="AO56">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>1.5</v>
       </c>
@@ -15011,16 +14963,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.0000000000001327E-6</v>
       </c>
-      <c r="AL57" s="2">
+      <c r="AL57">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.67565186751233253</v>
       </c>
-      <c r="AM57" s="2">
+      <c r="AM57">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.68058491895701201</v>
       </c>
-      <c r="AN57" s="2"/>
-      <c r="AO57" s="2">
+      <c r="AO57">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>1.5</v>
       </c>
@@ -15150,16 +15101,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.9999999999998318E-6</v>
       </c>
-      <c r="AL58" s="2">
+      <c r="AL58">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.0708818635607322</v>
       </c>
-      <c r="AM58" s="2">
+      <c r="AM58">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>1.0782029950083196</v>
       </c>
-      <c r="AN58" s="2"/>
-      <c r="AO58" s="2">
+      <c r="AO58">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>1.5</v>
       </c>
@@ -15289,16 +15239,15 @@
         <f>benchmark_2083057978[[#This Row],[HSCDMAXT]]-benchmark_2083057978[[#This Row],[HSCDMINT]]</f>
         <v>1.9999999999998318E-6</v>
       </c>
-      <c r="AL59" s="2">
+      <c r="AL59">
         <f>benchmark_2083057978[[#This Row],[HWAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.56849260295881665</v>
       </c>
-      <c r="AM59" s="2">
+      <c r="AM59">
         <f>benchmark_2083057978[[#This Row],[HSCDAT]]/benchmark_2083057978[[#This Row],[SWAT]]</f>
         <v>0.40999600159936023</v>
       </c>
-      <c r="AN59" s="2"/>
-      <c r="AO59" s="2">
+      <c r="AO59">
         <f>benchmark_2083057978[[#This Row],[YS]] + 0.5</f>
         <v>-1.5</v>
       </c>
